--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value829.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value829.xlsx
@@ -351,7 +351,7 @@
         <v>0.972728211502882</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>3.022241677083773</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value829.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value829.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.972728211502882</v>
+        <v>1.3639155626297</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.027185440063477</v>
       </c>
       <c r="C1">
-        <v>3.022241677083773</v>
+        <v>3.097575187683105</v>
       </c>
       <c r="D1">
-        <v>1.751902654558477</v>
+        <v>1.096873044967651</v>
       </c>
       <c r="E1">
-        <v>1.362453506904498</v>
+        <v>0.8176232576370239</v>
       </c>
     </row>
   </sheetData>
